--- a/out_bd_rate/excel/bdr_RaceHorses_lowdelay.xlsx
+++ b/out_bd_rate/excel/bdr_RaceHorses_lowdelay.xlsx
@@ -19,34 +19,34 @@
     <t>bd_rate</t>
   </si>
   <si>
+    <t>4x4-1-8x8-1</t>
+  </si>
+  <si>
     <t>4x4-1-8x8-2</t>
   </si>
   <si>
+    <t>4x4-1-8x8-3</t>
+  </si>
+  <si>
+    <t>4x4-1-8x8-SAD</t>
+  </si>
+  <si>
     <t>4x4-3-8x8-SAD</t>
   </si>
   <si>
     <t>4x4-3</t>
   </si>
   <si>
-    <t>4x4-1-8x8-SAD</t>
+    <t>8x8-1</t>
+  </si>
+  <si>
+    <t>8x8-2</t>
   </si>
   <si>
     <t>8x8-3</t>
   </si>
   <si>
-    <t>8x8-1</t>
-  </si>
-  <si>
-    <t>4x4-1-8x8-1</t>
-  </si>
-  <si>
     <t>8x8-SAD</t>
-  </si>
-  <si>
-    <t>4x4-1-8x8-3</t>
-  </si>
-  <si>
-    <t>8x8-2</t>
   </si>
 </sst>
 </file>
@@ -428,7 +428,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.2516274556266795</v>
+        <v>0.187221210720212</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -436,7 +436,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.09420883169808381</v>
+        <v>0.187221210720212</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -452,7 +452,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.1335610919771746</v>
+        <v>0.2516274556266795</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -460,7 +460,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.06706745252957891</v>
+        <v>0.09420883169808381</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.187221210720212</v>
+        <v>0.06706745252957891</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -476,7 +476,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.1610480815490867</v>
+        <v>0.0946585753933693</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -484,7 +484,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.187221210720212</v>
+        <v>0.1335610919771746</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -492,7 +492,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.0946585753933693</v>
+        <v>0.1610480815490867</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -508,7 +508,7 @@
         <v>2</v>
       </c>
       <c r="B13">
-        <v>0.3089578841726004</v>
+        <v>1.11162673665719</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -516,7 +516,7 @@
         <v>3</v>
       </c>
       <c r="B14">
-        <v>0.3212973932513741</v>
+        <v>1.11162673665719</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -532,7 +532,7 @@
         <v>5</v>
       </c>
       <c r="B16">
-        <v>0.3513667137272192</v>
+        <v>0.3089578841726004</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -540,7 +540,7 @@
         <v>6</v>
       </c>
       <c r="B17">
-        <v>0.05992070382943027</v>
+        <v>0.3212973932513741</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -548,7 +548,7 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>1.11162673665719</v>
+        <v>0.05992070382943027</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -556,7 +556,7 @@
         <v>8</v>
       </c>
       <c r="B19">
-        <v>0.6741868351708868</v>
+        <v>0.2808305362961505</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -564,7 +564,7 @@
         <v>9</v>
       </c>
       <c r="B20">
-        <v>1.11162673665719</v>
+        <v>0.3513667137272192</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -572,7 +572,7 @@
         <v>10</v>
       </c>
       <c r="B21">
-        <v>0.2808305362961505</v>
+        <v>0.6741868351708868</v>
       </c>
     </row>
   </sheetData>
